--- a/data/balance_sheet/3digits/total/873_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/873_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>873-Residential care activities for the elderly and disabled</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>873-Residential care activities for the elderly and disabled</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>9264.391460000001</v>
@@ -1496,26 +946,31 @@
         <v>41552.66349</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>50848.35720000001</v>
+        <v>50878.35720000001</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>48388.67542</v>
+        <v>48388.67543</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>69251.4736</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>83423.12067</v>
+        <v>83549.63725</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>162482.63372</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>124766.54618</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>192497.317</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>2523.54091</v>
@@ -1539,23 +994,28 @@
         <v>11458.19668</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>11073.45256</v>
+        <v>11073.45257</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>15082.92078</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>20370.29854</v>
+        <v>20398.07439</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>68285.08776000001</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>27523.57911</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>54952.436</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>1885.03783</v>
@@ -1573,29 +1033,34 @@
         <v>4451.54795</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>6552.12219</v>
+        <v>6552.122189999999</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>8608.820559999998</v>
+        <v>8608.82056</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>6002.749620000001</v>
+        <v>6002.749630000001</v>
       </c>
       <c r="K7" s="22" t="n">
-        <v>7500.3513</v>
+        <v>7500.351300000001</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>6794.73276</v>
+        <v>6822.475300000001</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>9649.602640000001</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>9896.435879999999</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>25763.129</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>22</v>
@@ -1630,15 +1095,20 @@
       <c r="M8" s="22" t="n">
         <v>172</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
-        <v>668.54508</v>
+        <v>668.5450800000001</v>
       </c>
       <c r="D9" s="22" t="n">
         <v>1549.69221</v>
@@ -1665,17 +1135,22 @@
         <v>7932.45295</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>13431.8644</v>
+        <v>13431.89771</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>58430.17854000001</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>17382.39527</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>29092.287</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>54.85</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>123.86968</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>272.241</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>2.808</v>
@@ -1748,14 +1228,19 @@
         <v>408.3829499999999</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>157.17626</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>196.61764</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>347.961</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>538.82574</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>392.3814</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>1398.128</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>0</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>155.18203</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>199.04</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>0</v>
@@ -1910,21 +1410,26 @@
       <c r="M15" s="22" t="n">
         <v>0.59094</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>1092.24</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>538.82574</v>
       </c>
       <c r="D16" s="22" t="n">
-        <v>545.65171</v>
+        <v>545.6517100000001</v>
       </c>
       <c r="E16" s="22" t="n">
-        <v>908.24772</v>
+        <v>908.2477200000001</v>
       </c>
       <c r="F16" s="21" t="n">
         <v>241.50187</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>236.60843</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>106.848</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>2828.69794</v>
@@ -2025,17 +1540,22 @@
         <v>24347.97848</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>31146.47376</v>
+        <v>31168.91612</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>41548.84675</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>41512.64029</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>44827.471</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>2095.0693</v>
@@ -2050,7 +1570,7 @@
         <v>7478.9467</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>8590.990400000001</v>
+        <v>8590.990399999999</v>
       </c>
       <c r="H19" s="21" t="n">
         <v>12380.75971</v>
@@ -2065,17 +1585,22 @@
         <v>21982.33727</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>29423.56294</v>
+        <v>29443.65978</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>39446.44437</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>39440.77813</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>41319.118</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>348.5</v>
@@ -2108,14 +1633,19 @@
         <v>311.89</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>225.7</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>202</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>577.453</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>90.18930999999999</v>
@@ -2225,17 +1765,22 @@
         <v>264.3377</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>308.62386</v>
+        <v>310.96938</v>
       </c>
       <c r="M23" s="22" t="n">
         <v>331.98488</v>
       </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+      <c r="N23" s="22" t="n">
+        <v>971.2569999999999</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>178.90142</v>
@@ -2268,14 +1813,19 @@
         <v>613.56089</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>798.57095</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>791.73073</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>1066.739</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>118.47191</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>825.4283999999999</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>953.452</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>2.434</v>
@@ -2348,14 +1903,19 @@
         <v>79.28185000000001</v>
       </c>
       <c r="M26" s="22" t="n">
-        <v>79.28184999999999</v>
-      </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+        <v>79.28185000000001</v>
+      </c>
+      <c r="N26" s="22" t="n">
+        <v>60.548</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>613.17314</v>
@@ -2385,17 +1945,22 @@
         <v>9221.187689999999</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>9318.94636</v>
+        <v>9336.439630000001</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>18788.16746</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>21019.63502</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>33434.342</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>321.90855</v>
@@ -2419,7 +1984,7 @@
         <v>3118.71567</v>
       </c>
       <c r="J28" s="21" t="n">
-        <v>3357.547329999999</v>
+        <v>3357.54733</v>
       </c>
       <c r="K28" s="22" t="n">
         <v>5715.5525</v>
@@ -2428,14 +1993,19 @@
         <v>6447.127320000001</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>10434.43828</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>10710.78199</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>16173.863</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>100</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>1753.99451</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>1394.523</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>0.30441</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>15.34605</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>336.34</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>290.96018</v>
@@ -2567,7 +2152,7 @@
         <v>649.58975</v>
       </c>
       <c r="F32" s="21" t="n">
-        <v>940.6551800000001</v>
+        <v>940.65518</v>
       </c>
       <c r="G32" s="22" t="n">
         <v>843.8931899999999</v>
@@ -2585,17 +2170,22 @@
         <v>2106.84482</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>1471.17085</v>
+        <v>1488.66412</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>6584.38862</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>8539.512470000001</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>15429.616</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>1814.93156</v>
@@ -2727,7 +2332,7 @@
         <v>4122.30393</v>
       </c>
       <c r="F36" s="33" t="n">
-        <v>4985.317140000001</v>
+        <v>4985.31714</v>
       </c>
       <c r="G36" s="23" t="n">
         <v>6297.553110000001</v>
@@ -2736,7 +2341,7 @@
         <v>7096.88092</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>8757.83546</v>
+        <v>8787.83546</v>
       </c>
       <c r="J36" s="33" t="n">
         <v>8332.56991</v>
@@ -2745,17 +2350,22 @@
         <v>13419.05859</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>12600.85131</v>
+        <v>12605.92461</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>15423.76681</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>15404.68838</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>35484.123</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>381.40047</v>
@@ -2790,12 +2400,17 @@
       <c r="M37" s="22" t="n">
         <v>4510.593150000001</v>
       </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+      <c r="N37" s="22" t="n">
+        <v>4944.797</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>31.7346</v>
@@ -2830,12 +2445,17 @@
       <c r="M38" s="22" t="n">
         <v>256.78233</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>720.8049999999999</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>0</v>
@@ -2870,12 +2490,17 @@
       <c r="M39" s="22" t="n">
         <v>642.97492</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>1163.929</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>858.4204100000001</v>
@@ -2896,7 +2521,7 @@
         <v>2197.84122</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>2188.31553</v>
+        <v>2218.31553</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>2376.43179</v>
@@ -2910,12 +2535,17 @@
       <c r="M40" s="22" t="n">
         <v>2363.03244</v>
       </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+      <c r="N40" s="22" t="n">
+        <v>6183.564</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>57.12482</v>
@@ -2927,7 +2557,7 @@
         <v>530.54058</v>
       </c>
       <c r="F41" s="21" t="n">
-        <v>632.9607499999998</v>
+        <v>632.96075</v>
       </c>
       <c r="G41" s="22" t="n">
         <v>580.73527</v>
@@ -2948,14 +2578,19 @@
         <v>1002.68829</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>956.89222</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>952.02431</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>1994.692</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>486.25126</v>
@@ -3022,20 +2662,25 @@
         <v>1443.95388</v>
       </c>
       <c r="K43" s="22" t="n">
-        <v>7072.756129999999</v>
+        <v>7072.75613</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>6915.547250000001</v>
+        <v>6920.62055</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>6693.49175</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>6679.281230000001</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>20476.336</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>186.40554</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>23.985</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>186.40554</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>23.985</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>91.13217999999999</v>
@@ -3228,14 +2893,19 @@
         <v>2547.03043</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>3256.69607</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>3772.48962</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>3348.513</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>87.64516999999999</v>
@@ -3268,14 +2938,19 @@
         <v>1572.16373</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>2056.18069</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>2571.97424</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>3109.838</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>3.48701</v>
@@ -3305,17 +2980,22 @@
         <v>773.8540300000001</v>
       </c>
       <c r="L50" s="22" t="n">
-        <v>974.8667</v>
+        <v>974.8666999999999</v>
       </c>
       <c r="M50" s="22" t="n">
         <v>1200.51538</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>238.675</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>667.68445</v>
@@ -3336,7 +3016,7 @@
         <v>3846.71711</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>4421.676219999999</v>
+        <v>4421.67622</v>
       </c>
       <c r="J51" s="45" t="n">
         <v>3936.10997</v>
@@ -3345,17 +3025,22 @@
         <v>4286.49144</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>7058.29627</v>
+        <v>7112.02807</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>14787.68747</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>15141.13236</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>19028.319</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>462.06336</v>
@@ -3364,13 +3049,13 @@
         <v>603.8513</v>
       </c>
       <c r="E52" s="22" t="n">
-        <v>918.0633500000001</v>
+        <v>918.06335</v>
       </c>
       <c r="F52" s="21" t="n">
         <v>1849.14225</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>2477.09354</v>
+        <v>2477.093539999999</v>
       </c>
       <c r="H52" s="21" t="n">
         <v>2945.5112</v>
@@ -3385,17 +3070,22 @@
         <v>2873.33085</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>5528.9108</v>
+        <v>5582.642599999999</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>12721.43798</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>12930.6433</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>15803.041</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>5.45181</v>
@@ -3428,14 +3118,19 @@
         <v>0.378</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>13.37243</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>157.18505</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>0</v>
@@ -3470,12 +3165,17 @@
       <c r="M54" s="22" t="n">
         <v>103.80858</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>5.409</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>136.32899</v>
@@ -3508,14 +3208,19 @@
         <v>592.13838</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>846.7251199999999</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>847.15207</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>1153.283</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>54.33528999999999</v>
@@ -3550,12 +3255,17 @@
       <c r="M56" s="22" t="n">
         <v>155.36799</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>885.671</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>9.505000000000001</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>31.6</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>86.556</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>7.233</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>915.37537</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>1051.826</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>8585.314420000001</v>
@@ -3729,13 +3459,13 @@
         <v>30119.3072</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>33054.4747</v>
+        <v>33054.47470000001</v>
       </c>
       <c r="H61" s="37" t="n">
         <v>46980.9663</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>56394.85661</v>
+        <v>56394.85661000001</v>
       </c>
       <c r="J61" s="37" t="n">
         <v>67498.9409</v>
@@ -3744,17 +3474,22 @@
         <v>82634.14573</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>136953.85982</v>
+        <v>137640.63089</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>216143.11139</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>217389.3891</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>253429.099</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>57.95535</v>
@@ -3763,7 +3498,7 @@
         <v>64.35847</v>
       </c>
       <c r="E62" s="36" t="n">
-        <v>88.41112</v>
+        <v>88.41112000000001</v>
       </c>
       <c r="F62" s="37" t="n">
         <v>772.87764</v>
@@ -3772,16 +3507,16 @@
         <v>1098.82883</v>
       </c>
       <c r="H62" s="37" t="n">
-        <v>663.0833699999998</v>
+        <v>663.0833699999999</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>666.2252999999999</v>
+        <v>666.2253000000001</v>
       </c>
       <c r="J62" s="37" t="n">
         <v>638.47124</v>
       </c>
       <c r="K62" s="36" t="n">
-        <v>840.8697499999998</v>
+        <v>840.86975</v>
       </c>
       <c r="L62" s="36" t="n">
         <v>767.9602600000001</v>
@@ -3789,12 +3524,17 @@
       <c r="M62" s="36" t="n">
         <v>779.68676</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>973.99</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>264.45063</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>591.207</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>57.95535</v>
@@ -3972,10 +3732,10 @@
         <v>673.8288299999999</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>663.0833699999998</v>
+        <v>663.0833699999999</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>666.2252999999999</v>
+        <v>666.2253000000001</v>
       </c>
       <c r="J67" s="21" t="n">
         <v>224.89671</v>
@@ -3989,12 +3749,17 @@
       <c r="M67" s="22" t="n">
         <v>515.23613</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>382.783</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>208.95885</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>19604.41845</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>18952.258</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>208.2234</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>18500</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>18500</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>0.73545</v>
@@ -4264,17 +4059,22 @@
         <v>3012.75661</v>
       </c>
       <c r="L74" s="22" t="n">
-        <v>643.8553199999999</v>
+        <v>643.8553200000001</v>
       </c>
       <c r="M74" s="22" t="n">
         <v>1104.41845</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>452.258</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>126.72849</v>
@@ -4372,7 +4182,7 @@
         <v>126.41567</v>
       </c>
       <c r="H77" s="33" t="n">
-        <v>6203.723019999999</v>
+        <v>6203.72302</v>
       </c>
       <c r="I77" s="23" t="n">
         <v>6203.723019999999</v>
@@ -4384,17 +4194,22 @@
         <v>6095.78076</v>
       </c>
       <c r="L77" s="23" t="n">
+        <v>6134.826779999999</v>
+      </c>
+      <c r="M77" s="23" t="n">
         <v>6134.82678</v>
       </c>
-      <c r="M77" s="23" t="n">
-        <v>6134.826779999999</v>
-      </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>6210.034</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>52.044</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>128.60349</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>57.51943</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>80.68300000000001</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>1.875</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>0</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>6077.30735</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>6077.307</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>5394.49871</v>
@@ -4824,17 +4689,22 @@
         <v>53756.39405</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>86855.13355</v>
+        <v>87511.98886</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>165815.28223</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>167118.36586</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>196370.774</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>199.86869</v>
@@ -4864,17 +4734,22 @@
         <v>4492.77065</v>
       </c>
       <c r="L89" s="22" t="n">
-        <v>5281.952179999999</v>
+        <v>5781.952179999999</v>
       </c>
       <c r="M89" s="22" t="n">
-        <v>5129.85218</v>
-      </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+        <v>5629.85218</v>
+      </c>
+      <c r="N89" s="22" t="n">
+        <v>10733.124</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>0</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>10.2</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>1074.0208</v>
@@ -4949,12 +4829,17 @@
       <c r="M91" s="22" t="n">
         <v>90611.65674999999</v>
       </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+      <c r="N91" s="22" t="n">
+        <v>114878.833</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>279.27787</v>
@@ -4963,7 +4848,7 @@
         <v>314.45275</v>
       </c>
       <c r="E92" s="22" t="n">
-        <v>326.3011100000001</v>
+        <v>326.30111</v>
       </c>
       <c r="F92" s="21" t="n">
         <v>336.80889</v>
@@ -4987,14 +4872,19 @@
         <v>1440.96817</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>1555.0104</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>1589.1039</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>5642.579</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>1605.38434</v>
@@ -5012,7 +4902,7 @@
         <v>4192.36322</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>6169.824149999999</v>
+        <v>6169.82415</v>
       </c>
       <c r="I93" s="22" t="n">
         <v>6645.191719999999</v>
@@ -5027,20 +4917,25 @@
         <v>13635.15357</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>16726.33225</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>17283.59508</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>22883.88</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>4069.58306</v>
       </c>
       <c r="D94" s="22" t="n">
-        <v>5176.248479999999</v>
+        <v>5176.24848</v>
       </c>
       <c r="E94" s="22" t="n">
         <v>7916.51499</v>
@@ -5064,17 +4959,22 @@
         <v>27702.62757</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>33853.29389</v>
+        <v>34028.98084</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>42014.00622</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>42308.27489</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>54638.451</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>0</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>3764.07759</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>3764.078</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>2320.99045</v>
@@ -5144,17 +5049,22 @@
         <v>17199.46164</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>22052.08936</v>
+        <v>22070.921</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>27179.87861</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>27262.41998</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>37307.785</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>487.3544</v>
@@ -5187,14 +5097,19 @@
         <v>17650.40801</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>32229.88012000001</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>32229.88012</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>17017.82</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>0</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>954.1453299999999</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>4119.794</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>2099.5048</v>
@@ -5246,7 +5166,7 @@
         <v>2657.50645</v>
       </c>
       <c r="F99" s="33" t="n">
-        <v>6359.779369999999</v>
+        <v>6359.77937</v>
       </c>
       <c r="G99" s="23" t="n">
         <v>7579.1502</v>
@@ -5264,17 +5184,22 @@
         <v>15649.78741</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>15268.53799</v>
+        <v>15298.45375</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>15944.39715</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>15994.9196</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>21119.789</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>46.79803</v>
@@ -5309,12 +5234,17 @@
       <c r="M100" s="22" t="n">
         <v>306.05482</v>
       </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+      <c r="N100" s="22" t="n">
+        <v>384.768</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>162.382</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>25</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>199.57983</v>
@@ -5384,17 +5319,22 @@
         <v>286.30453</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>96.39416</v>
+        <v>98.02805000000001</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>105.44791</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>104.06012</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>112.561</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>165.0996</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>47.97134</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>47.971</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>2337.64491</v>
@@ -5464,17 +5409,22 @@
         <v>20327.75545</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>22672.79644</v>
+        <v>22701.07831</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>25483.27543</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>25541.80543</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>32543.229</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>21.57105</v>
@@ -5509,12 +5459,17 @@
       <c r="M105" s="22" t="n">
         <v>172.14856</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>271.819</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>833.57062</v>
@@ -5547,14 +5502,19 @@
         <v>8034.62083</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>10195.50091</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>10202.12067</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>12265.559</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>701.4895900000001</v>
@@ -5867,14 +5862,19 @@
         <v>3065.04887</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>6444.354740000001</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>6337.02637</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>8358.325000000001</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>701.4895900000001</v>
@@ -5907,14 +5907,19 @@
         <v>3065.04887</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>6444.354740000001</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>6337.02637</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>8358.325000000001</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>-3.82137</v>
@@ -5989,12 +5999,17 @@
       <c r="M117" s="23" t="n">
         <v>1420.14528</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>1443.929</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0.10644</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>23.703</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>229.89729</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>229.978</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>1e-05</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>3.92781</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>56.88508</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>56.885</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>1247.13308</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>1247.133</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>17849.70588</v>
@@ -6366,32 +6426,35 @@
         <v>39587.61272</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>55769.44695000001</v>
+        <v>55769.44695</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>61814.79549</v>
+        <v>61814.79549000001</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>88533.62978999999</v>
+        <v>88533.62979000001</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>107243.21381</v>
+        <v>107273.21381</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>115887.61632</v>
+        <v>115887.61633</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>151885.61933</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>220376.98049</v>
+        <v>221190.26814</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>378625.74511</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>342155.93528</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>445926.416</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>873-Residential care activities for the elderly and disabled</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>12148.33979</v>
@@ -6507,26 +6584,31 @@
         <v>50573.71781</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>60400.26286</v>
+        <v>61141.94895000001</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>64510.46489</v>
+        <v>64510.4649</v>
       </c>
       <c r="K132" s="23" t="n">
-        <v>82893.90999000001</v>
+        <v>82893.90999</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>106251.59486</v>
+        <v>107650.09065</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>222193.50832</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>184596.61871</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>250210.817</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>1351.14044</v>
@@ -6544,7 +6626,7 @@
         <v>2632.66144</v>
       </c>
       <c r="H133" s="33" t="n">
-        <v>4933.545050000001</v>
+        <v>4933.54505</v>
       </c>
       <c r="I133" s="23" t="n">
         <v>6716.658479999999</v>
@@ -6556,17 +6638,22 @@
         <v>8523.96514</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>12391.46149</v>
+        <v>12391.46249</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>15854.26755</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>15628.81079</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>27470.592</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>1351.14043</v>
@@ -6596,17 +6683,22 @@
         <v>8448.963730000001</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>12038.61034</v>
+        <v>12038.61134</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>15465.62593</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>15199.07345</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>25674.229</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>1e-05</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>0</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>0</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>175.50007</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>1407.106</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>0</v>
@@ -6919,14 +7046,19 @@
         <v>83.41569</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>213.14155</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>254.23727</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>389.257</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>3180.64051</v>
@@ -6956,17 +7088,22 @@
         <v>15723.62002</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>20278.2855</v>
+        <v>20666.7016</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>78602.75243000001</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>38932.3699</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>31707.317</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>1834.98292</v>
@@ -6996,17 +7133,22 @@
         <v>11678.75551</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>14713.47044</v>
+        <v>15013.91444</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>72306.98109999999</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>32425.26677</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>26769.937</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>1162.38129</v>
@@ -7036,17 +7178,22 @@
         <v>1567.0845</v>
       </c>
       <c r="L145" s="25" t="n">
-        <v>2872.4132</v>
+        <v>2882.4132</v>
       </c>
       <c r="M145" s="25" t="n">
         <v>3900.22903</v>
       </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+      <c r="N145" s="25" t="n">
+        <v>1524.662</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>115.6878</v>
@@ -7116,17 +7268,22 @@
         <v>1017.4325</v>
       </c>
       <c r="L147" s="25" t="n">
-        <v>971.80839</v>
+        <v>1012.80839</v>
       </c>
       <c r="M147" s="25" t="n">
         <v>1060.2602</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>568.048</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>67.5885</v>
@@ -7138,7 +7295,7 @@
         <v>392.83496</v>
       </c>
       <c r="F148" s="24" t="n">
-        <v>732.1217100000001</v>
+        <v>732.12171</v>
       </c>
       <c r="G148" s="25" t="n">
         <v>696.90874</v>
@@ -7156,17 +7313,22 @@
         <v>1460.34751</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>1720.59347</v>
+        <v>1757.56557</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>1335.2821</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>1546.6139</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>2844.67</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>4784.18276</v>
@@ -7187,26 +7349,31 @@
         <v>25315.65329</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>26582.42967</v>
+        <v>27324.11576</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>29990.85606</v>
+        <v>29990.85607</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>40563.8092</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>53706.5488</v>
+        <v>54471.37636</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>103943.69235</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>105422.43389</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>160590.474</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>3463.08899</v>
@@ -7236,17 +7403,22 @@
         <v>29433.49249</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>42311.15461</v>
+        <v>43027.85867</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>89360.72222</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>90339.60241999998</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>136075.098</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>11.378</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>3061.28409</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>3563.287</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>581.4439</v>
@@ -7356,17 +7538,22 @@
         <v>5027.29278</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>5426.81523</v>
+        <v>5474.518730000001</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>7459.69036</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>7814.88092</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>8031.184</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>728.27187</v>
@@ -7387,26 +7574,31 @@
         <v>2210.88782</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>1972.55302</v>
+        <v>2714.23911</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>1966.68642</v>
+        <v>1966.68643</v>
       </c>
       <c r="K154" s="22" t="n">
         <v>3398.74539</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>3152.29304</v>
+        <v>3152.71304</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>4061.99568</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>4206.66646</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>12920.905</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>560.87572</v>
@@ -7467,7 +7664,7 @@
         <v>943.59843</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>793.3286899999999</v>
+        <v>793.3286900000001</v>
       </c>
       <c r="J156" s="33" t="n">
         <v>942.36186</v>
@@ -7476,17 +7673,22 @@
         <v>2642.85512</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>4035.06298</v>
+        <v>4155.47198</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>5091.66188</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>5145.30188</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>7564.688</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>554.22072</v>
@@ -7516,17 +7718,22 @@
         <v>1269.48377</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>1908.60955</v>
+        <v>2029.01855</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>3666.89676</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>3720.53676</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>5570.759</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>6.655</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>1424.76512</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>1993.929</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>65.42373000000001</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>65.42373000000001</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>2116.02785</v>
@@ -7695,13 +7922,13 @@
         <v>2962.96965</v>
       </c>
       <c r="E162" s="23" t="n">
-        <v>3744.971439999999</v>
+        <v>3744.97144</v>
       </c>
       <c r="F162" s="33" t="n">
         <v>5316.562889999999</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>5956.282180000001</v>
+        <v>5956.28218</v>
       </c>
       <c r="H162" s="33" t="n">
         <v>7342.05735</v>
@@ -7716,20 +7943,25 @@
         <v>14327.66204</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>14410.9376</v>
+        <v>14535.77973</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>16589.00812</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>17244.21195</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>20612.964</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
-        <v>770.9255599999999</v>
+        <v>770.92556</v>
       </c>
       <c r="D163" s="22" t="n">
         <v>840.72303</v>
@@ -7756,17 +7988,22 @@
         <v>3968.34765</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>4720.249390000001</v>
+        <v>4757.79791</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>6705.4629</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>7001.698640000001</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>5796.026</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>739.2559699999999</v>
@@ -7796,17 +8033,22 @@
         <v>4924.13807</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>5097.27687</v>
+        <v>5158.17057</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>5933.34465</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>6086.216570000001</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>6792.179</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>605.8463200000001</v>
@@ -7836,17 +8078,22 @@
         <v>5402.48551</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>4491.374599999999</v>
+        <v>4517.77451</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>3803.76256</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>4009.38073</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>7723.206</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>0</v>
@@ -7879,17 +8126,22 @@
         <v>102.03674</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>146.43801</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>146.91601</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>301.553</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
-        <v>79.55923</v>
+        <v>79.55923000000001</v>
       </c>
       <c r="D167" s="23" t="n">
         <v>151.03061</v>
@@ -7919,14 +8171,19 @@
         <v>697.9888100000001</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>1412.9817</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>1428.70272</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>1761.711</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>236.97368</v>
@@ -7944,7 +8201,7 @@
         <v>728.3599499999999</v>
       </c>
       <c r="H168" s="21" t="n">
-        <v>926.5006099999998</v>
+        <v>926.5006099999999</v>
       </c>
       <c r="I168" s="22" t="n">
         <v>1090.05137</v>
@@ -7959,14 +8216,19 @@
         <v>3283.7649</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>4140.12866</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>4240.167780000001</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>3866.625</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>157.41445</v>
@@ -7990,7 +8252,7 @@
         <v>748.10586</v>
       </c>
       <c r="J169" s="21" t="n">
-        <v>702.02271</v>
+        <v>702.0227100000001</v>
       </c>
       <c r="K169" s="22" t="n">
         <v>1724.3485</v>
@@ -7999,14 +8261,19 @@
         <v>2586.16478</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>2727.53565</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>2811.85375</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>2105.303</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0.38869</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>3.43004</v>
@@ -8159,14 +8441,19 @@
         <v>466.42664</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>388.66913</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>388.6691300000001</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>281.293</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>0</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>37.62706</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>36.733</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>3.43004</v>
@@ -8218,7 +8510,7 @@
         <v>35.9057</v>
       </c>
       <c r="F175" s="21" t="n">
-        <v>447.9489400000001</v>
+        <v>447.94894</v>
       </c>
       <c r="G175" s="22" t="n">
         <v>52.58731</v>
@@ -8239,14 +8531,19 @@
         <v>381.93224</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>351.04207</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>351.0420700000001</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>244.56</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>7.05951</v>
@@ -8279,14 +8576,19 @@
         <v>93.32747999999999</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>310.47516</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>406.11845</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>221.778</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>7.05951</v>
@@ -8319,14 +8621,19 @@
         <v>0</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>161.82864</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>257.47193</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>216.097</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>148.64652</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>5.681</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>2167.00547</v>
@@ -8516,17 +8843,22 @@
         <v>36708.05274</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>52840.83843000001</v>
+        <v>52842.57198</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>70751.47093000001</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>72470.33759000001</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>89029.519</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>23.45861</v>
@@ -8547,7 +8879,7 @@
         <v>7960.160529999999</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>9768.257449999999</v>
+        <v>9768.257450000001</v>
       </c>
       <c r="J183" s="33" t="n">
         <v>14735.05916</v>
@@ -8559,14 +8891,19 @@
         <v>26463.43091</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>42539.82643</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>44240.41952</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>60002.997</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>23.45861</v>
@@ -8599,14 +8936,19 @@
         <v>22689.84761</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>38706.74057</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>40407.33366</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>56173.744</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>0</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>431.79889</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>466.228</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>0</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>62.86302000000001</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>66.371</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>3464.14999</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>3429.396</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>10.04</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>1198.73619</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>777.9640000000001</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>0</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>978.08548</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>559.226</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>0</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>10.04</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>199.61369</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>197.701</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>21.03702</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>21.037</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>2018.52829</v>
@@ -9101,7 +9503,7 @@
         <v>1439.47439</v>
       </c>
       <c r="G197" s="23" t="n">
-        <v>2341.411349999999</v>
+        <v>2341.41135</v>
       </c>
       <c r="H197" s="33" t="n">
         <v>5917.32699</v>
@@ -9116,17 +9518,22 @@
         <v>19232.6197</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>25083.90121</v>
+        <v>25085.63476</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>26582.02066</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>26600.29423</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>27620.836</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>1004.12122</v>
@@ -9161,12 +9568,17 @@
       <c r="M198" s="22" t="n">
         <v>16973.57658</v>
       </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+      <c r="N198" s="22" t="n">
+        <v>14380.008</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>3643.87176</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>3670.172</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>1014.40707</v>
@@ -9233,20 +9650,25 @@
         <v>5827.39112</v>
       </c>
       <c r="K200" s="22" t="n">
-        <v>5545.99653</v>
+        <v>5545.996529999999</v>
       </c>
       <c r="L200" s="22" t="n">
-        <v>5734.56103</v>
+        <v>5734.561029999999</v>
       </c>
       <c r="M200" s="22" t="n">
         <v>5957.224230000001</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>6146.077</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>7.34809</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>3401.977</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0</v>
@@ -9356,17 +9788,22 @@
         <v>492.00548</v>
       </c>
       <c r="L203" s="22" t="n">
-        <v>238.00405</v>
+        <v>239.7376</v>
       </c>
       <c r="M203" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+        <v>18.27357</v>
+      </c>
+      <c r="N203" s="22" t="n">
+        <v>22.602</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>114.97857</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>114.97857</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>0</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>314.63707</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>588.463</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>0</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>314.63707</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>588.463</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>116.25058</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>39.259</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>104.8604</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>27.752</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>11.39018</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>11.507</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>3534.36062</v>
@@ -9895,7 +10397,7 @@
         <v>5634.41615</v>
       </c>
       <c r="E217" s="23" t="n">
-        <v>6251.00432</v>
+        <v>6251.004319999999</v>
       </c>
       <c r="F217" s="33" t="n">
         <v>14119.24037</v>
@@ -9907,7 +10409,7 @@
         <v>23500.55983</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>25886.89511</v>
+        <v>25175.20902</v>
       </c>
       <c r="J217" s="33" t="n">
         <v>20293.6825</v>
@@ -9916,23 +10418,28 @@
         <v>32283.6566</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>61284.5472</v>
+        <v>60697.60551</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>85680.76586</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>85088.97897999999</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>106686.08</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>7491.28263</v>
       </c>
       <c r="D218" s="23" t="n">
-        <v>9374.52146</v>
+        <v>9374.521460000002</v>
       </c>
       <c r="E218" s="23" t="n">
         <v>11131.95969</v>
@@ -9956,17 +10463,22 @@
         <v>36726.09501</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>57479.25179</v>
+        <v>57479.25179000001</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>71076.73312</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>71039.23311999999</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>92840.253</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>10065.45432</v>
@@ -9996,17 +10508,22 @@
         <v>43462.94683</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>65052.54683</v>
+        <v>66782.54682999999</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>82610.07135</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>87190.07135</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>119808.935</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>3170.685</v>
@@ -10015,7 +10532,7 @@
         <v>5422.93439</v>
       </c>
       <c r="E220" s="22" t="n">
-        <v>7480.970170000001</v>
+        <v>7480.97017</v>
       </c>
       <c r="F220" s="21" t="n">
         <v>7475.48132</v>
@@ -10036,23 +10553,28 @@
         <v>6970.69757</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>7810.65332</v>
+        <v>9540.653319999999</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>11770.69651</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>16388.19651</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>27219.162</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
-        <v>596.5133099999999</v>
+        <v>596.51331</v>
       </c>
       <c r="D221" s="22" t="n">
-        <v>576.3224999999999</v>
+        <v>576.3225</v>
       </c>
       <c r="E221" s="22" t="n">
         <v>253.92986</v>
@@ -10081,12 +10603,17 @@
       <c r="M221" s="22" t="n">
         <v>237.35828</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>250.48</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>0</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>3082.41571</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>2940.066</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>0</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>1412.56571</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>1412.566</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>0</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>1669.85</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>1527.5</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>308.71586</v>
@@ -10481,12 +11053,17 @@
       <c r="M231" s="23" t="n">
         <v>4218.533189999999</v>
       </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+      <c r="N231" s="23" t="n">
+        <v>4995.17</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>80.20062</v>
@@ -10521,12 +11098,17 @@
       <c r="M232" s="22" t="n">
         <v>578.1665400000001</v>
       </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+      <c r="N232" s="22" t="n">
+        <v>647.515</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>5.32904</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>6.45</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>17.754</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>223.17907</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>3264.785170000001</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>3650.096</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0.00713</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>0.00713</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>0</v>
@@ -10681,12 +11278,17 @@
       <c r="M236" s="22" t="n">
         <v>369.12435</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>679.798</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>1838.39905</v>
@@ -10707,26 +11309,31 @@
         <v>9343.07243</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>12023.29547</v>
+        <v>12104.07072</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>17523.10936</v>
+        <v>17590.72416</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>21752.55227</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>31245.18613</v>
+        <v>31907.68508</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>43182.59277</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>43181.54785</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>52864.086</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-6389.86792</v>
@@ -10735,7 +11342,7 @@
         <v>-7342.86138</v>
       </c>
       <c r="E238" s="23" t="n">
-        <v>-8733.75554</v>
+        <v>-8733.755539999998</v>
       </c>
       <c r="F238" s="33" t="n">
         <v>-11502.23525</v>
@@ -10747,7 +11354,7 @@
         <v>-21131.58061</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-25252.7912</v>
+        <v>-25528.05846</v>
       </c>
       <c r="J238" s="33" t="n">
         <v>-28015.53416</v>
@@ -10756,23 +11363,28 @@
         <v>-36690.0471</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-38370.09987</v>
+        <v>-38375.51218</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-47649.05393</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-47756.27458</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-57773.733</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>285.8310000000001</v>
       </c>
       <c r="D239" s="23" t="n">
-        <v>78.83792999999993</v>
+        <v>78.83792999999997</v>
       </c>
       <c r="E239" s="23" t="n">
         <v>-487.76905</v>
@@ -10781,32 +11393,37 @@
         <v>-197.8141999999999</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>-848.7118799999998</v>
+        <v>-848.7118800000001</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>-938.6257799999998</v>
+        <v>-938.62578</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-994.68346</v>
+        <v>-1511.87754</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>-5693.27338</v>
+        <v>-5760.88818</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>6287.42366</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>5173.31618</v>
+        <v>3929.28785</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>11769.545</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>11323.52369</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>10820.238</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>1646.14821</v>
@@ -10824,10 +11441,10 @@
         <v>4759.61296</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>5048.53543</v>
+        <v>5048.535430000001</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>6833.824100000001</v>
+        <v>6833.8241</v>
       </c>
       <c r="J240" s="21" t="n">
         <v>5163.566630000001</v>
@@ -10839,14 +11456,19 @@
         <v>16754.33898</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>22379.42613</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>22820.50296</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>29141.492</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>1360.31721</v>
@@ -10864,29 +11486,34 @@
         <v>5608.32484</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>5987.161209999999</v>
+        <v>5987.16121</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>7828.50756</v>
+        <v>8345.701639999999</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>10856.84001</v>
+        <v>10924.45481</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>7671.17963</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>11581.0228</v>
+        <v>12825.05113</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>10609.88113</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>11496.97927</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>18321.254</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>17849.70588</v>
@@ -10904,26 +11531,29 @@
         <v>61814.79549</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>88533.62978999999</v>
+        <v>88533.62979000001</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>107243.21381</v>
+        <v>107273.21381</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>115887.61632</v>
+        <v>115887.61633</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>151885.61933</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>220376.98049</v>
+        <v>221190.26814</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>378625.74511</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>342155.93528</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>445926.416</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>68</v>
@@ -10963,23 +11596,26 @@
         <v>135</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>166</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>190</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>206</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>231</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>